--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/SOUTH_CAROLINA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/SOUTH_CAROLINA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1228"/>
+  <dimension ref="A1:D1222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C10">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C27">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C32">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C37">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C58">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C71">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C98">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C99">
@@ -1912,7 +1912,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C117">
@@ -2021,7 +2021,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C125">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C143">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C154">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C157">
@@ -2525,12 +2525,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C163">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C166">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C175">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C189">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C200">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C217">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C224">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C229">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C231">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C244">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C251">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C262">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C267">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C270">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C273">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C282">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C285">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C288">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C294">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C302">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C308">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C313">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C326">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C331">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C335">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C347">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C354">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C359">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C363">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C365">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C368">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C376">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C380">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C383">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C388">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C392">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C394">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C396">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C404">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C409">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C415">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C419">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C424">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C429">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C434">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C444">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C446">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C450">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C457">
@@ -7144,7 +7144,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C516">
@@ -7396,7 +7396,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C535">
@@ -7474,7 +7474,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C541">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C545">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C550">
@@ -7700,7 +7700,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C558">
@@ -7739,7 +7739,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C561">
@@ -7804,7 +7804,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C566">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C583">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C587">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C590">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C596">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C599">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C606">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C609">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C613">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C617">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C619">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C632">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C634">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C645">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C679">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C690">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C705">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C714">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C723">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C773">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C787">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C790">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C792">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C796">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C800">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C813">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C827">
@@ -11303,7 +11303,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C834">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C835">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C839">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C841">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C848">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C853">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C865">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C876">
@@ -11862,7 +11862,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C877">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C904">
@@ -12244,7 +12244,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C906">
@@ -12296,7 +12296,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C910">
@@ -12309,7 +12309,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C911">
@@ -12335,7 +12335,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C913">
@@ -12361,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C915">
@@ -12488,7 +12488,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C924">
@@ -12566,7 +12566,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C930">
@@ -12696,7 +12696,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C940">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C945">
@@ -12813,7 +12813,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C949">
@@ -12826,7 +12826,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C950">
@@ -12943,7 +12943,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C959">
@@ -12956,7 +12956,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C960">
@@ -12969,7 +12969,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C961">
@@ -13439,7 +13439,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C996">
@@ -13769,7 +13769,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1021">
@@ -13930,7 +13930,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1033">
@@ -13956,7 +13956,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1035">
@@ -13982,7 +13982,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1037">
@@ -14008,7 +14008,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1039">
@@ -14143,7 +14143,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1049">
@@ -14195,7 +14195,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1053">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1060">
@@ -14312,7 +14312,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1062">
@@ -14351,7 +14351,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1065">
@@ -14377,7 +14377,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1067">
@@ -14559,7 +14559,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1081">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1082">
@@ -14754,7 +14754,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1096">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1097">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1100">
@@ -14819,7 +14819,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1101">
@@ -14832,7 +14832,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1102">
@@ -14936,7 +14936,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1110">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1113">
@@ -14988,7 +14988,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1114">
@@ -15040,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1118">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1120">
@@ -15131,7 +15131,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1125">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1136">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1137">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1140">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1149">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1151">
@@ -15521,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1155">
@@ -15833,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1179">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1189">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1201">
@@ -16168,7 +16168,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1204">
@@ -16194,7 +16194,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1206">
@@ -16207,7 +16207,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1207">
@@ -16285,7 +16285,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1213">
@@ -16324,7 +16324,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1216">
@@ -16410,41 +16410,6 @@
       </c>
       <c r="D1222">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
